--- a/sf-house-excel/src/test/resources/ExcelSessionExportByTemplate.xlsx
+++ b/sf-house-excel/src/test/resources/ExcelSessionExportByTemplate.xlsx
@@ -1,18 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nijianfeng/projects/sf-code/sf-excel/src/test/java/cn/sf/excel/common/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr documentId="10_ncr:8100000_{B4CCCBF0-8CA2-4864-A204-858E44794242}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="520" windowWidth="25600" windowHeight="14200"/>
+    <workbookView windowHeight="17535" windowWidth="28725" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="465"/>
   </bookViews>
   <sheets>
-    <sheet name="测试" sheetId="1" r:id="rId1"/>
+    <sheet name="测试" r:id="rId1" sheetId="1"/>
     <sheet name="测试2" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,35 +32,35 @@
   </si>
   <si>
     <t>字符串</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>zi fu c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>啦啦啦</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>lll</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>啊啊啊</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>a a a</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哈哈哈</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>h h h</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数字</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>shu zi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,28 +91,28 @@
   </si>
   <si>
     <t>范围</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>fan wei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>fou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>ri qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,21 +128,21 @@
     <t>我是测试数据1</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2018-08-16 00:11:55</t>
-  </si>
-  <si>
-    <t>2018-08-16</t>
+    <t>2018-10-01 14:15:49</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>我是测试数据2</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>字符串</t>
   </si>
   <si>
@@ -160,14 +156,17 @@
   </si>
   <si>
     <t>日期类型</t>
+  </si>
+  <si>
+    <t>列表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode=" #,##0.00 "/>
+    <numFmt numFmtId="164" formatCode=" #,##0.00 "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -193,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -201,109 +200,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+  <cellXfs count="37">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -320,10 +352,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -358,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,7 +513,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -490,13 +522,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -506,7 +538,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -515,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -524,7 +556,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -534,12 +566,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -570,7 +602,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -589,7 +621,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -601,22 +633,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="1" width="19.53125" collapsed="true" customWidth="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.53125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.53125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.53125" collapsed="true"/>
-    <col min="5" max="5" style="1" width="19.53125" collapsed="true" customWidth="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="19.53125" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="8.83203125" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="8.875" collapsed="true"/>
+    <col min="1" max="1" style="1" width="19.53125" collapsed="false" customWidth="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.53125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.53125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.53125" collapsed="false"/>
+    <col min="5" max="5" style="1" width="19.53125" collapsed="false" customWidth="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="19.53125" collapsed="false"/>
+    <col min="7" max="7" style="1" width="19.53125" collapsed="false" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15" ht="35.0" customHeight="true">
@@ -639,6 +672,7 @@
         <v>16</v>
       </c>
       <c r="G1"/>
+      <c r="H1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15" ht="35.0" customHeight="true">
       <c r="A2" s="1" t="s">
@@ -660,6 +694,7 @@
         <v>17</v>
       </c>
       <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15" ht="35.0" customHeight="true">
       <c r="A3" s="1" t="s">
@@ -679,6 +714,7 @@
       </c>
       <c r="F3"/>
       <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15" ht="35.0" customHeight="true">
       <c r="A4" s="1" t="s">
@@ -698,59 +734,66 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5" ht="35.0" customHeight="true">
       <c r="A5" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="4">
-        <v>21</v>
+      <c r="B5" t="n" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C5" t="n" s="4">
+        <v>22.0</v>
       </c>
       <c r="D5" t="n" s="5">
         <v>22.22</v>
       </c>
       <c r="E5" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="F5" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6" ht="35.0" customHeight="true">
-      <c r="A6" t="s" s="8">
+      <c r="A6" t="s" s="9">
+        <v>23</v>
+      </c>
+      <c r="B6" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="D6" t="n" s="12">
+        <v>22.22</v>
+      </c>
+      <c r="E6" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s" s="15">
         <v>24</v>
       </c>
-      <c r="B6" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n" s="11">
-        <v>22.22</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s" s="13">
-        <v>23</v>
-      </c>
-      <c r="G6"/>
+      <c r="H6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -762,70 +805,80 @@
     <col min="4" max="4" width="19.53125" customWidth="true"/>
     <col min="5" max="5" width="19.53125" customWidth="true"/>
     <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="7" max="7" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.0" customHeight="true">
-      <c r="A1" t="s" s="14">
+      <c r="A1" t="s" s="16">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="15">
+      <c r="B1" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="C1" t="s" s="16">
+      <c r="C1" t="s" s="18">
         <v>27</v>
       </c>
-      <c r="D1" t="s" s="17">
+      <c r="D1" t="s" s="19">
         <v>28</v>
       </c>
-      <c r="E1" t="s" s="18">
+      <c r="E1" t="s" s="20">
         <v>29</v>
       </c>
-      <c r="F1" t="s" s="19">
+      <c r="F1" t="s" s="21">
         <v>29</v>
       </c>
-      <c r="G1"/>
+      <c r="G1" t="s" s="22">
+        <v>30</v>
+      </c>
+      <c r="H1"/>
     </row>
     <row r="2" ht="35.0" customHeight="true">
-      <c r="A2" t="s" s="20">
+      <c r="A2" t="s" s="23">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="B2" t="n" s="24">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n" s="25">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="26">
+        <v>22.22</v>
+      </c>
+      <c r="E2" t="s" s="27">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="22">
+      <c r="F2" t="s" s="28">
         <v>21</v>
       </c>
-      <c r="D2" t="n" s="23">
-        <v>22.22</v>
-      </c>
-      <c r="E2" t="s" s="24">
+      <c r="G2" t="s" s="29">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="25">
-        <v>23</v>
-      </c>
-      <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3" ht="35.0" customHeight="true">
-      <c r="A3" t="s" s="26">
+      <c r="A3" t="s" s="30">
+        <v>23</v>
+      </c>
+      <c r="B3" t="n" s="31">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n" s="32">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="33">
+        <v>22.22</v>
+      </c>
+      <c r="E3" t="s" s="34">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="35">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="36">
         <v>24</v>
       </c>
-      <c r="B3" t="s" s="27">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="28">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n" s="29">
-        <v>22.22</v>
-      </c>
-      <c r="E3" t="s" s="30">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s" s="31">
-        <v>23</v>
-      </c>
-      <c r="G3"/>
+      <c r="H3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/sf-house-excel/src/test/resources/ExcelSessionExportByTemplate.xlsx
+++ b/sf-house-excel/src/test/resources/ExcelSessionExportByTemplate.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="10_ncr:8100000_{B4CCCBF0-8CA2-4864-A204-858E44794242}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C27FD61D-6580-47E3-A74C-1C30455DDFC0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView windowHeight="17535" windowWidth="28725" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="465"/>
+    <workbookView activeTab="1" windowHeight="17535" windowWidth="28725" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="465"/>
   </bookViews>
   <sheets>
     <sheet name="测试" r:id="rId1" sheetId="1"/>
-    <sheet name="测试2" r:id="rId5" sheetId="2"/>
+    <sheet name="测试3-1" r:id="rId2" sheetId="2"/>
+    <sheet name="测试4-1" r:id="rId3" sheetId="3"/>
+    <sheet name="测试2" r:id="rId7" sheetId="4"/>
+    <sheet name="测试3" r:id="rId8" sheetId="5"/>
+    <sheet name="测试4" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="32">
   <si>
     <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2152365476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>范围</t>
     <rPh eb="1" sb="0">
       <t>fan wei</t>
@@ -122,16 +122,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>测试4-1</t>
+  </si>
+  <si>
+    <t>测试3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>我是测试数据1</t>
   </si>
   <si>
-    <t>2018-10-01 14:15:49</t>
-  </si>
-  <si>
-    <t>2018-10-01</t>
+    <t>2018-12-25 09:48:10</t>
+  </si>
+  <si>
+    <t>2018-12-25</t>
   </si>
   <si>
     <t>否</t>
@@ -222,112 +229,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -634,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,7 +560,7 @@
     <col min="7" max="7" style="1" width="19.53125" collapsed="false" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15" ht="35.0" customHeight="true">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,15 +574,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15" ht="35.0" customHeight="true">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -688,15 +594,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15" ht="35.0" customHeight="true">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,13 +614,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15" ht="35.0" customHeight="true">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -726,63 +627,55 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" ht="35.0" customHeight="true">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B5" t="n" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="C5" t="n" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="D5" t="n" s="5">
-        <v>22.22</v>
-      </c>
-      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" ht="35.0" customHeight="true">
-      <c r="A6" t="s" s="9">
+      <c r="B5" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D5" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B6" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="C6" t="n" s="11">
-        <v>22.0</v>
-      </c>
-      <c r="D6" t="n" s="12">
-        <v>22.22</v>
-      </c>
-      <c r="E6" t="s" s="13">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s" s="15">
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="H6"/>
+      <c r="B6" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D6" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -792,6 +685,249 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C551A4A-0CC1-45C0-9ACA-6A44E4D0001E}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="7" max="7" width="19.53125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D4" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D5" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967294" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B794F871-79D7-4B2B-A86A-22821E434FFF}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="7" max="7" width="19.53125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D4" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D5" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -809,76 +945,326 @@
   </cols>
   <sheetData>
     <row r="1" ht="35.0" customHeight="true">
-      <c r="A1" t="s" s="16">
+      <c r="A1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="17">
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="7" max="7" width="19.53125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.0" customHeight="true">
+      <c r="A1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C1" t="s" s="18">
+      <c r="B1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="D1" t="s" s="19">
+      <c r="C1" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="E1" t="s" s="20">
+      <c r="D1" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="F1" t="s" s="21">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s" s="22">
+      <c r="E1" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="F1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>31</v>
+      </c>
       <c r="H1"/>
     </row>
-    <row r="2" ht="35.0" customHeight="true">
-      <c r="A2" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="B2" t="n" s="24">
-        <v>12.0</v>
-      </c>
-      <c r="C2" t="n" s="25">
-        <v>22.0</v>
-      </c>
-      <c r="D2" t="n" s="26">
-        <v>22.22</v>
-      </c>
-      <c r="E2" t="s" s="27">
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="28">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s" s="29">
-        <v>22</v>
-      </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" ht="35.0" customHeight="true">
-      <c r="A3" t="s" s="30">
+      <c r="B2" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B3" t="n" s="31">
-        <v>12.0</v>
-      </c>
-      <c r="C3" t="n" s="32">
-        <v>22.0</v>
-      </c>
-      <c r="D3" t="n" s="33">
-        <v>22.22</v>
-      </c>
-      <c r="E3" t="s" s="34">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="35">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="36">
+      <c r="B4" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D4" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="H3"/>
+      <c r="B5" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D5" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="7" max="7" width="19.53125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B1" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C1" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D1" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D3" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D4" t="n" s="3">
+        <v>22.22</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
